--- a/Backup Database/English.xlsx
+++ b/Backup Database/English.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5730" windowHeight="4635"/>
   </bookViews>
   <sheets>
-    <sheet name="Unit 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unit 1.2.3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t xml:space="preserve">1. Please don't make so much noise. I'm trying to work. </t>
   </si>
@@ -284,7 +286,406 @@
     <t>- I won't tell anybody what you said. I promise.</t>
   </si>
   <si>
-    <t xml:space="preserve">- </t>
+    <t>- You must let me pay for the meal. I insist.</t>
+  </si>
+  <si>
+    <t>- I apologise for what I did. It won't happen again.</t>
+  </si>
+  <si>
+    <t>- The new restaurant in Hill Street is very good. I recommend.</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Unit 3. Present continuos and present simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Water boils at 100 degrees Celcius. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. The water is boiling. Can you turn it off. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Look. The man is trying to open the door of your car. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Can you hear those people. What are they talking about. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. The moon goes round the earth in about 27 days. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. I must go now. It is getting late. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. I usually go to work by car. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Hurry up! It's time to leave. </t>
+  </si>
+  <si>
+    <t>9. I hear you've got a new job. How are you getting on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Paul is never late. He always gets to work on time. </t>
+  </si>
+  <si>
+    <t>11. They don't get on well. They are always arguing.</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Let's go out. It isn't raining. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Julia is very good at languages. She speaks four languages very well. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Hurry up! Evrybody is waiting you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Are you listening to the radio? No, you can turn it off. </t>
+  </si>
+  <si>
+    <t>5. Do you listen to the radio every day? No just occasionally (thỉnh thoảng)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. The River Nile flows into the Mediterranean. (địa trung hải) </t>
+  </si>
+  <si>
+    <t>7. The river is flowing fast today - much fsater than usual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. We usually grow vegetables in our garden, but this year we are not growing any. </t>
+  </si>
+  <si>
+    <t>9. How is your English?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not bad. I think it's improving slowly. </t>
+  </si>
+  <si>
+    <t>10. Rachel in New York right now. She is staying at the Part Hotel.</t>
+  </si>
+  <si>
+    <t>She allways stays there when she's in New York.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Can you stop walking soon. I'm starting to feel tired. </t>
+  </si>
+  <si>
+    <t>12. Can you drive?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm learning. My father is teaching me. </t>
+  </si>
+  <si>
+    <t>13. Normally I finish at five, but this week I'm working until six to earn a little more money.</t>
+  </si>
+  <si>
+    <t>14. My parents live in Manchester. They were born there and have never lived</t>
+  </si>
+  <si>
+    <t>anywhere else. Where do your parents live?</t>
+  </si>
+  <si>
+    <t>15. Sonia is looking for a place to live. She is staying with her sister until she finds somewhere.</t>
+  </si>
+  <si>
+    <t>16. What does your brother do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's an architect, but he isn't working at the moment. </t>
+  </si>
+  <si>
+    <t>17. I usually enjoy parties, but I'm not enjoying this one very much.</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>I've lost my phone again.</t>
+  </si>
+  <si>
+    <t>Not again. You're always losing your phone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The car has broken down again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That ar is useless. It's always breaking down. </t>
+  </si>
+  <si>
+    <t>Look! You've made the same mistake again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh no, not again! I'm always making the same mistake. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, I've forgootten my glasses again. </t>
+  </si>
+  <si>
+    <t>Typical! I'm always forgetting my glasses.</t>
+  </si>
+  <si>
+    <t>Unit 4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Are you hungry? Do you want something to eat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Don't put the dictionary away. I'm using it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Don't put the dictionary away. I need it. </t>
+  </si>
+  <si>
+    <t>4. Who is that man? What does he want?</t>
+  </si>
+  <si>
+    <t>5. Who is that man? Why is he looking at us?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Alan says he's 80 years old, but nobody belives him. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. She told me her name, but I don't remember it now. </t>
+  </si>
+  <si>
+    <t>8. I'm thinking of selling my car. Would you be interested in bying it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. I think you should sell your car. You doesn't use it very often. </t>
+  </si>
+  <si>
+    <t>10. Air consists mainly of notrogen and oxygen.</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>(consist of: gồm có)</t>
+  </si>
+  <si>
+    <t>You don't seem very happy today.</t>
+  </si>
+  <si>
+    <t>What are you doing?</t>
+  </si>
+  <si>
+    <t>Be quiet. I'm thinking.</t>
+  </si>
+  <si>
+    <t>Who does this umbrella belong to?</t>
+  </si>
+  <si>
+    <t>I have no idea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dinner smells good. </t>
+  </si>
+  <si>
+    <t>Excuse me. Anybody is sitting there?</t>
+  </si>
+  <si>
+    <t>No, It's free.</t>
+  </si>
+  <si>
+    <t>These glovers don't not fit  me.</t>
+  </si>
+  <si>
+    <t>They're too small.</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nicky is thinking of giving up her job. </t>
+  </si>
+  <si>
+    <t>2. Do you belive in God?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. This sauce is great. It tastes really good. </t>
+  </si>
+  <si>
+    <t>5. I think this is your key. Am I right?</t>
+  </si>
+  <si>
+    <t>3. I'm feeling hungry. Is there anything to eat.</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. I can't understand why he's being so selfish. He isn't usually like that. </t>
+  </si>
+  <si>
+    <t>2. Sarah is being very nice to me at the moment. I wonder why.</t>
+  </si>
+  <si>
+    <t>3. You'll like Sophie when you meet her. She is very nice.</t>
+  </si>
+  <si>
+    <t>4. You're usually ver patient, so why are you being so unreasonable about waiting ten more minutes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Why isn't Steve at work today? Is he ill? </t>
+  </si>
+  <si>
+    <t>Unit 5 Past Simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfgang Amadeus Mozart was an Australian musician and composer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He lived from 1756 to 1791. He started composing at the age of five </t>
+  </si>
+  <si>
+    <t>and wrote more than 600 pieces of music.</t>
+  </si>
+  <si>
+    <t>He was only 35 years old when he died.</t>
+  </si>
+  <si>
+    <t>I work in a travel agency now. Before that I worked in a department store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We invited them to our party, but they decided no to come. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The police stopped me on my way home last night. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura passed her exam because she studief very hard. </t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She got up at 7 o' clock. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She had a big breakfast. </t>
+  </si>
+  <si>
+    <t>She walked to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It took her about half an hour. </t>
+  </si>
+  <si>
+    <t>She started work at 8:45.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She didn’t have lunch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She finished work at 5 o'clock. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She was tired when she got home. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She cooked a meal yesterday evening. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She didn't go out yesterday evening. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She went to bed about 11 o'clock. </t>
+  </si>
+  <si>
+    <t>She slept well last night.</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mozart wrote more than 600 pieces of music. </t>
+  </si>
+  <si>
+    <t>2. How did you learn to drive? My father taught me.</t>
+  </si>
+  <si>
+    <t>3. We couldn't afford to keep our car, so we sold it.</t>
+  </si>
+  <si>
+    <t>4. Dave fel down the stairs this morning and hurt his leg.</t>
+  </si>
+  <si>
+    <t>5. Joe threw the ball to Sue, who caught it.</t>
+  </si>
+  <si>
+    <t>6. Ann spent a lot of money yesterday. She bought a dress which cost $100.</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Hi. How are things?</t>
+  </si>
+  <si>
+    <t>Fine, thanks. I've just had a great holoday.</t>
+  </si>
+  <si>
+    <t>Where did you go.</t>
+  </si>
+  <si>
+    <t>To the US. We went on a trip from San Francisco to Denver.</t>
+  </si>
+  <si>
+    <t>How did you go? By car?</t>
+  </si>
+  <si>
+    <t>Yes, we hired a car in San Francisco.</t>
+  </si>
+  <si>
+    <t>It's a long way to drive. How long did it take to get to Denver?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two weeks. </t>
+  </si>
+  <si>
+    <t>Where did you stay? In hotel?</t>
+  </si>
+  <si>
+    <t>Yes, small hotels or motels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was the weather good? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, but it was very hot - sometimes too hot. </t>
+  </si>
+  <si>
+    <t>Did you go to the Grand Canyon?</t>
+  </si>
+  <si>
+    <t>Of course. It was wonderful.</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was warm, so I took off my coat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The film wasn't very good. I didn't enjoy it much. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I knew Sarah was very busy, so I din't disturb her. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were very tired, so we left the party early. </t>
+  </si>
+  <si>
+    <t>The bed was very uncomfortable. I didn't sleep well.</t>
   </si>
 </sst>
 </file>
@@ -629,16 +1030,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO92"/>
+  <dimension ref="A1:AP233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="2.140625" style="2"/>
+    <col min="2" max="2" width="2.140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="2.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
@@ -1247,148 +1649,1076 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C85" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C86" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C87" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C88" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
       <c r="C89" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
       <c r="B92" s="9" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B93" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B94" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B103" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B104" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B105" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B107" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="1"/>
+      <c r="AO108" s="1"/>
+    </row>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B109" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B110" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C118" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C120" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C123" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="C129" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131" s="1"/>
+      <c r="AC131" s="1"/>
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+      <c r="AG131" s="1"/>
+      <c r="AH131" s="1"/>
+      <c r="AI131" s="1"/>
+      <c r="AJ131" s="1"/>
+      <c r="AK131" s="1"/>
+      <c r="AL131" s="1"/>
+      <c r="AM131" s="1"/>
+      <c r="AN131" s="1"/>
+      <c r="AO131" s="1"/>
+      <c r="AP131" s="1"/>
+    </row>
+    <row r="132" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B132" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B133" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B135" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B136" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B138" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B139" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B141" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="142" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="B142" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="143" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B145" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B146" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B147" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B148" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B149" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B150" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B151" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B152" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B153" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B154" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA154" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B156" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B158" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B159" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B169" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B172" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B173" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B174" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B175" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B176" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B209" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B210" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B211" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B214" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B216" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B218" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B220" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B222" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B224" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B226" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B229" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B230" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B231" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B232" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B233" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Backup Database/English.xlsx
+++ b/Backup Database/English.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t xml:space="preserve">1. Please don't make so much noise. I'm trying to work. </t>
   </si>
@@ -686,6 +686,135 @@
   </si>
   <si>
     <t>The bed was very uncomfortable. I didn't sleep well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window was open and a bird flew into the room. </t>
+  </si>
+  <si>
+    <t>The hotel wasn't very expensive. It didn't cost much to stay there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was in a hurry, so I didn't have time to phone you. </t>
+  </si>
+  <si>
+    <t>I was hard carrying the bags. They was very heavy.</t>
+  </si>
+  <si>
+    <t>Unit 6: Past continuous (I was doing)</t>
+  </si>
+  <si>
+    <t>Yesterday Karen and Jim played tennis. They started ar 10 o'clock and finished at 11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, at 10:30 they were playing tennis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They are playing tennis = they ware in the middle of playing. They had not finished playing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt phoned while we were having dinner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was raining when I got up. </t>
+  </si>
+  <si>
+    <t>I saw you in the part yesterday. You were sitting on the grass and reading a book.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hurt my back while I was working in the garden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was walking along the road whn I saw Dan. I stopped and we had a chat. </t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was having dinner. </t>
+  </si>
+  <si>
+    <t>I was on a bus on my way home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was playing tennis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was spleeping. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was watching a film on the television. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was walkinh to work. </t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Matt phoned while we were having dinner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. The doorbell rang while I was playing computer game. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. The car began to make a strange noise when we were driving home. </t>
+  </si>
+  <si>
+    <t>4. Jessica fell asleep while she was reading papers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. The television was on, but nobody wasn't watching. </t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. I saw Sue in town yesterday, but she didn't see me. She was looking the other way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. I met Tom and jane at the airport a few weeks ago. They were going to Paris and I was going to Rome had a chat while we were waiting for our flights. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. I was cycling home yesterday when the man steped out into the road in front of me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was going quite fast, but luckily I managed to stop in time and didn't hit him. </t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenny was waiting for me when I arrived </t>
+  </si>
+  <si>
+    <t>What were you doing at this time yesterday? I was asleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you go out last night? No, I was too tired. </t>
+  </si>
+  <si>
+    <t>How fast were you driving when the accident happened?</t>
+  </si>
+  <si>
+    <t>Sam took a picture of mw while I was not looking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were in a very difficult position. We didn't know what to do. </t>
+  </si>
+  <si>
+    <t>We haven't seen Alan for ages. When I last saw him, he was trying to find a job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was walking along the street when suddenly I heard footsteps behind me. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody was following me. I was scrared and I started to run. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I was young, I wanted to be a pilot. </t>
+  </si>
+  <si>
+    <t>Last night I droped a plate when I was soing the washing-up. Fortunately it didn't break.</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP233"/>
+  <dimension ref="A1:AP279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG275" sqref="AG275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2693,6 +2822,221 @@
         <v>219</v>
       </c>
     </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B234" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B235" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B236" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B237" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B240" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B241" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B242" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B247" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B249" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B251" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B252" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B254" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B255" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B256" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B258" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B259" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B260" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B261" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B262" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B264" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B265" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B266" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C267" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B269" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B270" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B271" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B272" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B273" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B274" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B275" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B276" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C277" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B278" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B279" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Backup Database/English.xlsx
+++ b/Backup Database/English.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5730" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5730" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unit 1.2.3" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Unit 7" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t xml:space="preserve">1. Please don't make so much noise. I'm trying to work. </t>
   </si>
@@ -815,13 +815,31 @@
   </si>
   <si>
     <t>Last night I droped a plate when I was soing the washing-up. Fortunately it didn't break.</t>
+  </si>
+  <si>
+    <t>Unit 7: Present perfect (I have done)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ow. I've cut my finger. </t>
+  </si>
+  <si>
+    <t>The road is closed. There's been an accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police have arrested two men in connection with the robbery. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where's your key? I don't know. I've lost it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He told me his name, but I've forgotten it. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,6 +849,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -862,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -879,6 +903,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A227" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AG275" sqref="AG275"/>
     </sheetView>
   </sheetViews>
@@ -3045,13 +3070,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
